--- a/src/ms2_ganttChart.xlsx
+++ b/src/ms2_ganttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXL\Documents\PhD\prod\ada2024\Project\ms2\rw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CDA11-E186-4639-98E3-3617A1DBB37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED51535-5B16-479F-81C0-AFB910E9010B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5520" xr2:uid="{E04A7ABF-E177-41D2-AEBF-66FBAF38E260}"/>
   </bookViews>
@@ -58,21 +58,6 @@
   </si>
   <si>
     <t>20.11: Deadline milestone P3</t>
-  </si>
-  <si>
-    <t>JX:  RQ2,7 - EDA</t>
-  </si>
-  <si>
-    <t>RL:  RQ1,8 - EDA</t>
-  </si>
-  <si>
-    <t>AO:  RQ1,9 - EDA</t>
-  </si>
-  <si>
-    <t>AZ:  RQ1,5 - EDA</t>
-  </si>
-  <si>
-    <t>RW:  RQ3,4,6 - EDA</t>
   </si>
   <si>
     <t>11-17.11</t>
@@ -112,52 +97,67 @@
     <t>Group:  bring together different parts</t>
   </si>
   <si>
-    <t>RL:  RQ1,8 - storytelling</t>
-  </si>
-  <si>
-    <t>AO:  RQ1,9 - storytelling</t>
-  </si>
-  <si>
-    <t>AZ:  RQ1,5 - storytelling</t>
-  </si>
-  <si>
-    <t>RW:  RQ3,4,6 - storytelling</t>
-  </si>
-  <si>
-    <t>JX:  RQ2,7 - visualization</t>
-  </si>
-  <si>
-    <t>JX:  RQ2,7 - storytelling</t>
-  </si>
-  <si>
-    <t>RL:  RQ1,8 - visualization</t>
-  </si>
-  <si>
-    <t>AO:  RQ1,9 - visualization</t>
-  </si>
-  <si>
-    <t>AZ:  RQ1,5 - visualization</t>
-  </si>
-  <si>
-    <t>RW:  RQ3,4,6 - visualization</t>
-  </si>
-  <si>
-    <t>JX:  RQ2,7 - analysis</t>
-  </si>
-  <si>
-    <t>RL:  RQ1,8 - analysis</t>
-  </si>
-  <si>
-    <t>AO:  RQ1,9 - analysis</t>
-  </si>
-  <si>
-    <t>AZ:  RQ1,5 - analysis</t>
-  </si>
-  <si>
-    <t>RW:  RQ3,4,6 - analysis</t>
-  </si>
-  <si>
     <t>02-08.12</t>
+  </si>
+  <si>
+    <t>JX:  RQ2,3,4 - EDA</t>
+  </si>
+  <si>
+    <t>JX:  RQ2,3,4 - analysis</t>
+  </si>
+  <si>
+    <t>JX:  RQ2,3,4 - visualization</t>
+  </si>
+  <si>
+    <t>JX:  RQ2,3,4 - storytelling</t>
+  </si>
+  <si>
+    <t>RW:  RQ2,3,4 - EDA</t>
+  </si>
+  <si>
+    <t>RW:  RQ2,3,4 - analysis</t>
+  </si>
+  <si>
+    <t>RW:  RQ2,3,4 - visualization</t>
+  </si>
+  <si>
+    <t>RW:  RQ2,3,4 - storytelling</t>
+  </si>
+  <si>
+    <t>AO:  RQ1,7,8,9 - EDA</t>
+  </si>
+  <si>
+    <t>AZ:  RQ1,7,8,9 - EDA</t>
+  </si>
+  <si>
+    <t>AO:  RQ1,7,8,9 - analysis</t>
+  </si>
+  <si>
+    <t>AZ:  RQ1,7,8,9 - analysis</t>
+  </si>
+  <si>
+    <t>AO:  RQ1,7,8,9 - visualization</t>
+  </si>
+  <si>
+    <t>AZ:  RQ1,7,8,9 - visualization</t>
+  </si>
+  <si>
+    <t>AO:  RQ1,7,8,9 - storytelling</t>
+  </si>
+  <si>
+    <t>AZ:  RQ1,7,8,9 - storytelling</t>
+  </si>
+  <si>
+    <t>RL:  RQ5,6 - EDA</t>
+  </si>
+  <si>
+    <t>RL:  RQ5,6 - analysis</t>
+  </si>
+  <si>
+    <t>RL:  RQ5,6 - visualization</t>
+  </si>
+  <si>
+    <t>RL:  RQ5,6 - storytelling</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,7 @@
     <row r="12" spans="2:17" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:17" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="2" t="s">
@@ -1054,7 +1054,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="15" spans="2:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="25"/>
@@ -1079,7 +1079,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="28"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="25"/>
@@ -1100,7 +1100,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="9"/>
       <c r="L16" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M16" s="28"/>
       <c r="O16" s="9"/>
@@ -1108,21 +1108,21 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="25"/>
@@ -1131,44 +1131,44 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13"/>
+      <c r="B18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="K18" s="20"/>
       <c r="L18" s="25"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="25"/>
@@ -1176,21 +1176,21 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="25"/>
@@ -1198,21 +1198,21 @@
     </row>
     <row r="21" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
       <c r="H21" s="35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="37" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="39"/>
